--- a/chatbot/chat/dataset/dialog_talk_agent.xlsx
+++ b/chatbot/chat/dataset/dialog_talk_agent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1706">
   <si>
     <t>Context</t>
   </si>
@@ -3755,9 +3755,6 @@
     <t>how is your evening</t>
   </si>
   <si>
-    <t>Lovely, thanks.</t>
-  </si>
-  <si>
     <t>how are you</t>
   </si>
   <si>
@@ -5136,6 +5133,15 @@
   </si>
   <si>
     <t>Okay. You know where to find me.</t>
+  </si>
+  <si>
+    <t>Lovely, thanks, What about you</t>
+  </si>
+  <si>
+    <t>Iam fine</t>
+  </si>
+  <si>
+    <t>That’s  great</t>
   </si>
 </sst>
 </file>
@@ -5462,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1593"/>
+  <dimension ref="A1:B1594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A1588" workbookViewId="0">
+      <selection activeCell="A1597" sqref="A1597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11570,2131 +11576,2131 @@
         <v>1242</v>
       </c>
       <c r="B1196" t="s">
-        <v>1243</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1235" t="s">
         <v>1279</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1236" t="s">
         <v>1281</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1237" t="s">
         <v>1283</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1238" t="s">
         <v>1285</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1246" t="s">
         <v>1293</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1247" t="s">
         <v>1295</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1248" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1249" t="s">
         <v>1298</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1264" t="s">
         <v>1313</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1265" t="s">
         <v>1315</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1266" t="s">
         <v>1317</v>
-      </c>
-      <c r="B1266" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1267" t="s">
         <v>1319</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1272" t="s">
         <v>1324</v>
-      </c>
-      <c r="B1272" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1273" t="s">
         <v>1326</v>
-      </c>
-      <c r="B1273" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1274" t="s">
         <v>1328</v>
-      </c>
-      <c r="B1274" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1275" t="s">
         <v>1330</v>
-      </c>
-      <c r="B1275" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1289" t="s">
         <v>1343</v>
-      </c>
-      <c r="B1289" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1290" t="s">
         <v>1345</v>
-      </c>
-      <c r="B1290" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1297" t="s">
         <v>1352</v>
-      </c>
-      <c r="B1297" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1298" t="s">
         <v>1354</v>
-      </c>
-      <c r="B1298" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1299" t="s">
         <v>1356</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1300" t="s">
         <v>1358</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1304" t="s">
         <v>1362</v>
-      </c>
-      <c r="B1304" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1305" t="s">
         <v>1364</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1306" t="s">
         <v>1366</v>
-      </c>
-      <c r="B1306" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1307" t="s">
         <v>1368</v>
-      </c>
-      <c r="B1307" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1313" t="s">
         <v>1374</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1314" t="s">
         <v>1376</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1315" t="s">
         <v>1378</v>
-      </c>
-      <c r="B1315" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1316" t="s">
         <v>1380</v>
-      </c>
-      <c r="B1316" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1323" t="s">
         <v>1387</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1324" t="s">
         <v>1389</v>
-      </c>
-      <c r="B1324" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1332" t="s">
         <v>1397</v>
-      </c>
-      <c r="B1332" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1333" t="s">
         <v>1399</v>
-      </c>
-      <c r="B1333" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1334" t="s">
         <v>1401</v>
-      </c>
-      <c r="B1334" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1335" t="s">
         <v>1403</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1340" t="s">
         <v>1408</v>
-      </c>
-      <c r="B1340" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1341" t="s">
         <v>1410</v>
-      </c>
-      <c r="B1341" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1342" t="s">
         <v>1412</v>
-      </c>
-      <c r="B1342" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1343" t="s">
         <v>1414</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1347" t="s">
         <v>1418</v>
-      </c>
-      <c r="B1347" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1348" t="s">
         <v>1420</v>
-      </c>
-      <c r="B1348" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1349" t="s">
         <v>1422</v>
-      </c>
-      <c r="B1349" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1350" t="s">
         <v>1424</v>
-      </c>
-      <c r="B1350" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1357" t="s">
         <v>1431</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1358" t="s">
         <v>1433</v>
-      </c>
-      <c r="B1358" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1364" t="s">
         <v>1439</v>
-      </c>
-      <c r="B1364" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1365" t="s">
         <v>1441</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1366" t="s">
         <v>1443</v>
-      </c>
-      <c r="B1366" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1367" t="s">
         <v>1445</v>
-      </c>
-      <c r="B1367" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1372" t="s">
         <v>1449</v>
-      </c>
-      <c r="B1372" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1373" t="s">
         <v>1451</v>
-      </c>
-      <c r="B1373" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1374" t="s">
         <v>1453</v>
-      </c>
-      <c r="B1374" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1379" t="s">
         <v>1458</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1380" t="s">
         <v>1460</v>
-      </c>
-      <c r="B1380" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1381" t="s">
         <v>1462</v>
-      </c>
-      <c r="B1381" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1382" t="s">
         <v>1464</v>
-      </c>
-      <c r="B1382" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1385" t="s">
         <v>1467</v>
-      </c>
-      <c r="B1385" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1386" t="s">
         <v>1469</v>
-      </c>
-      <c r="B1386" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1387" t="s">
         <v>1471</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1388" t="s">
         <v>1473</v>
-      </c>
-      <c r="B1388" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1396" t="s">
         <v>1481</v>
-      </c>
-      <c r="B1396" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1397" t="s">
         <v>1483</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1398" t="s">
         <v>1485</v>
-      </c>
-      <c r="B1398" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1399" t="s">
         <v>1487</v>
-      </c>
-      <c r="B1399" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1474" t="s">
         <v>1562</v>
-      </c>
-      <c r="B1474" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1475" t="s">
         <v>1564</v>
-      </c>
-      <c r="B1475" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1476" t="s">
         <v>1566</v>
-      </c>
-      <c r="B1476" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1477" t="s">
         <v>1568</v>
-      </c>
-      <c r="B1477" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1489" t="s">
         <v>1579</v>
-      </c>
-      <c r="B1489" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1490" t="s">
         <v>1581</v>
-      </c>
-      <c r="B1490" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1491" t="s">
         <v>1583</v>
-      </c>
-      <c r="B1491" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1492" t="s">
         <v>1585</v>
-      </c>
-      <c r="B1492" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B1496" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B1497" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B1498" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B1499" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1506" t="s">
         <v>1598</v>
-      </c>
-      <c r="B1506" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1530" t="s">
         <v>1622</v>
-      </c>
-      <c r="B1530" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1531" t="s">
         <v>1624</v>
-      </c>
-      <c r="B1531" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1532" t="s">
         <v>1626</v>
-      </c>
-      <c r="B1532" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1533" t="s">
         <v>1628</v>
-      </c>
-      <c r="B1533" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1540" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1540" t="s">
         <v>1635</v>
-      </c>
-      <c r="B1540" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1541" t="s">
         <v>1637</v>
-      </c>
-      <c r="B1541" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1542" t="s">
         <v>1639</v>
-      </c>
-      <c r="B1542" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1546" t="s">
         <v>1643</v>
-      </c>
-      <c r="B1546" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1547" t="s">
         <v>1645</v>
-      </c>
-      <c r="B1547" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1548" t="s">
         <v>1647</v>
-      </c>
-      <c r="B1548" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1549" t="s">
         <v>1649</v>
-      </c>
-      <c r="B1549" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1552" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B1555" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1556" t="s">
         <v>1656</v>
-      </c>
-      <c r="B1556" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B1557" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1558" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B1558" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1561" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1562" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1564" t="s">
         <v>1664</v>
-      </c>
-      <c r="B1564" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1565" t="s">
         <v>1666</v>
-      </c>
-      <c r="B1565" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1570" t="s">
         <v>1671</v>
-      </c>
-      <c r="B1570" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1571" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1571" t="s">
         <v>1673</v>
-      </c>
-      <c r="B1571" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1572" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1572" t="s">
         <v>1675</v>
-      </c>
-      <c r="B1572" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1573" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1573" t="s">
         <v>1677</v>
-      </c>
-      <c r="B1573" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1574" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1575" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1578" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1578" t="s">
         <v>1682</v>
-      </c>
-      <c r="B1578" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1579" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1579" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1579" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1580" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1580" t="s">
         <v>1686</v>
-      </c>
-      <c r="B1580" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1581" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1581" t="s">
         <v>1688</v>
-      </c>
-      <c r="B1581" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1582" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1583" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1584" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1585" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1586" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1587" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1588" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B1590" t="s">
         <v>1012</v>
@@ -13702,26 +13708,34 @@
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1591" t="s">
         <v>1698</v>
-      </c>
-      <c r="B1591" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1592" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1592" t="s">
         <v>1700</v>
-      </c>
-      <c r="B1592" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1593" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1593" t="s">
         <v>1702</v>
       </c>
-      <c r="B1593" t="s">
-        <v>1703</v>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>1705</v>
       </c>
     </row>
   </sheetData>
